--- a/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 20,38</t>
+          <t>7,32; 20,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 22,4</t>
+          <t>10,4; 22,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,43; 32,86</t>
+          <t>16,76; 32,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,39; 35,04</t>
+          <t>17,01; 34,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,78; 38,26</t>
+          <t>21,61; 38,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 41,42</t>
+          <t>23,29; 42,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,74; 35,29</t>
+          <t>17,7; 34,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 33,89</t>
+          <t>22,2; 34,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 26,86</t>
+          <t>16,29; 27,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,06; 30,29</t>
+          <t>18,93; 30,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,73; 30,29</t>
+          <t>19,16; 30,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,11; 31,63</t>
+          <t>21,98; 31,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 16,98</t>
+          <t>11,27; 16,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 19,87</t>
+          <t>13,33; 19,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 17,21</t>
+          <t>11,14; 17,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,2; 19,21</t>
+          <t>13,1; 19,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,3</t>
+          <t>18,39; 25,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 29,28</t>
+          <t>21,92; 29,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,92; 29,3</t>
+          <t>21,6; 29,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 23,63</t>
+          <t>17,4; 23,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,67; 20,38</t>
+          <t>15,76; 20,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,8; 23,69</t>
+          <t>18,72; 23,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,3; 22,21</t>
+          <t>17,45; 21,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 20,68</t>
+          <t>16,34; 20,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,27</t>
+          <t>10,87; 15,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,89</t>
+          <t>14,14; 18,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,9</t>
+          <t>12,04; 16,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,61; 30,75</t>
+          <t>11,84; 31,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 25,53</t>
+          <t>20,29; 25,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,38; 28,51</t>
+          <t>22,44; 28,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,54; 27,11</t>
+          <t>21,6; 27,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,03</t>
+          <t>20,79; 24,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 19,77</t>
+          <t>16,2; 19,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 22,78</t>
+          <t>19,09; 22,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,24</t>
+          <t>17,37; 21,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 26,65</t>
+          <t>17,29; 26,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 18,37</t>
+          <t>12,83; 18,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,68</t>
+          <t>10,12; 15,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 16,79</t>
+          <t>11,61; 16,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 21,22</t>
+          <t>15,54; 21,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,32; 28,07</t>
+          <t>21,71; 28,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,22; 26,35</t>
+          <t>20,08; 26,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 24,66</t>
+          <t>18,42; 24,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 23,24</t>
+          <t>13,2; 23,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 22,35</t>
+          <t>18,21; 22,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 20,07</t>
+          <t>15,99; 20,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 19,71</t>
+          <t>15,81; 20,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 21,31</t>
+          <t>15,08; 21,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 16,03</t>
+          <t>11,76; 16,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 19,38</t>
+          <t>14,01; 19,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 16,68</t>
+          <t>12,27; 16,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 17,84</t>
+          <t>13,42; 17,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,8</t>
+          <t>20,24; 25,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,41; 30,09</t>
+          <t>24,54; 30,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,19; 23,33</t>
+          <t>18,03; 23,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,09; 26,91</t>
+          <t>22,09; 26,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,92; 20,41</t>
+          <t>17,03; 20,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,2</t>
+          <t>20,28; 24,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 19,64</t>
+          <t>15,97; 19,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,69; 21,97</t>
+          <t>18,7; 22,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,11</t>
+          <t>12,77; 15,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,92</t>
+          <t>14,47; 16,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,71</t>
+          <t>13,31; 15,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,74</t>
+          <t>15,04; 21,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,79</t>
+          <t>21,88; 24,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,35; 27,28</t>
+          <t>24,17; 27,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,44; 24,46</t>
+          <t>21,26; 24,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,25; 23,74</t>
+          <t>19,82; 23,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,66</t>
+          <t>17,74; 19,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,87</t>
+          <t>19,82; 21,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,74</t>
+          <t>17,86; 19,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,63; 21,71</t>
+          <t>18,57; 21,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 20,2</t>
+          <t>7,3; 20,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 22,59</t>
+          <t>9,92; 21,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,76; 32,08</t>
+          <t>16,5; 32,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,61; 38,24</t>
+          <t>21,69; 37,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,29; 42,02</t>
+          <t>23,53; 41,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 34,33</t>
+          <t>17,41; 34,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 27,25</t>
+          <t>15,56; 26,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,93; 30,32</t>
+          <t>18,57; 30,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 30,11</t>
+          <t>19,4; 30,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 16,76</t>
+          <t>11,15; 16,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,85</t>
+          <t>13,31; 19,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 17,32</t>
+          <t>11,27; 17,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 25,29</t>
+          <t>19,01; 25,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,92; 29,69</t>
+          <t>22,44; 29,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,6; 29,09</t>
+          <t>21,86; 29,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 20,3</t>
+          <t>15,67; 20,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,72; 23,66</t>
+          <t>18,84; 23,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,45; 21,92</t>
+          <t>17,49; 22,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,16</t>
+          <t>10,85; 15,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 18,95</t>
+          <t>14,15; 18,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,66</t>
+          <t>12,44; 16,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,29; 25,81</t>
+          <t>19,99; 25,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,44; 28,1</t>
+          <t>22,5; 28,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,6; 27,09</t>
+          <t>21,49; 27,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,2; 19,58</t>
+          <t>16,19; 19,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,86</t>
+          <t>19,16; 22,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,37; 21,07</t>
+          <t>17,59; 21,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,83; 18,44</t>
+          <t>13,03; 18,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 15,49</t>
+          <t>10,27; 15,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,61; 16,75</t>
+          <t>11,24; 16,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 28,03</t>
+          <t>21,81; 28,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,11</t>
+          <t>20,2; 26,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,42; 24,64</t>
+          <t>18,73; 24,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 22,35</t>
+          <t>18,14; 22,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 20,13</t>
+          <t>15,74; 19,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 20,16</t>
+          <t>15,79; 19,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 16,07</t>
+          <t>11,83; 16,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 19,11</t>
+          <t>14,18; 19,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,75</t>
+          <t>12,13; 16,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,24; 25,42</t>
+          <t>20,14; 25,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,54; 30,23</t>
+          <t>24,42; 29,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,03; 23,14</t>
+          <t>18,03; 23,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,03; 20,28</t>
+          <t>16,82; 20,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,28; 24,06</t>
+          <t>20,36; 24,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,97; 19,54</t>
+          <t>16,02; 19,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,32</t>
+          <t>12,77; 15,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,47; 16,97</t>
+          <t>14,3; 16,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,76</t>
+          <t>13,29; 15,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,88; 24,69</t>
+          <t>21,78; 24,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,17; 27,18</t>
+          <t>24,22; 27,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,26; 24,24</t>
+          <t>21,39; 24,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 19,55</t>
+          <t>17,8; 19,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,82; 21,9</t>
+          <t>19,77; 21,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,86; 19,71</t>
+          <t>17,73; 19,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 20,33</t>
+          <t>7,16; 20,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,74</t>
+          <t>10,2; 22,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,5; 32,64</t>
+          <t>16,43; 32,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 34,13</t>
+          <t>17,39; 35,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,69; 37,15</t>
+          <t>21,78; 38,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,53; 41,71</t>
+          <t>23,16; 41,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,41; 34,04</t>
+          <t>17,74; 35,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,2; 34,08</t>
+          <t>22,07; 33,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,56; 26,83</t>
+          <t>16,04; 26,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,57; 30,14</t>
+          <t>19,06; 30,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 30,94</t>
+          <t>18,73; 30,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,98; 31,6</t>
+          <t>22,11; 31,63</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,89</t>
+          <t>11,42; 16,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 19,83</t>
+          <t>13,25; 19,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,17</t>
+          <t>11,31; 17,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,1; 19,16</t>
+          <t>13,2; 19,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 25,81</t>
+          <t>18,66; 25,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 29,35</t>
+          <t>21,89; 29,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,86; 29,26</t>
+          <t>21,92; 29,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,24</t>
+          <t>17,79; 23,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,67; 20,1</t>
+          <t>15,67; 20,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,84; 23,72</t>
+          <t>18,8; 23,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 22,18</t>
+          <t>17,3; 22,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 20,65</t>
+          <t>16,44; 20,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,17</t>
+          <t>10,76; 15,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,15; 18,89</t>
+          <t>13,99; 18,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 16,7</t>
+          <t>12,24; 16,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 31,5</t>
+          <t>11,61; 30,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,99; 25,75</t>
+          <t>20,02; 25,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 28,2</t>
+          <t>22,38; 28,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,49; 27,29</t>
+          <t>21,54; 27,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,79; 24,99</t>
+          <t>20,87; 25,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 19,73</t>
+          <t>16,26; 19,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 22,74</t>
+          <t>19,06; 22,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,29</t>
+          <t>17,59; 21,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 26,89</t>
+          <t>17,25; 26,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 18,39</t>
+          <t>12,81; 18,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,48</t>
+          <t>10,06; 15,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 16,63</t>
+          <t>11,53; 16,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,54; 21,71</t>
+          <t>15,68; 21,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 28,29</t>
+          <t>21,32; 28,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 26,56</t>
+          <t>20,22; 26,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,73; 24,84</t>
+          <t>18,68; 24,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,2; 23,43</t>
+          <t>12,76; 23,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,47</t>
+          <t>18,05; 22,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 19,87</t>
+          <t>15,93; 20,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 19,82</t>
+          <t>15,87; 19,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,33</t>
+          <t>14,59; 21,31</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,83; 16,01</t>
+          <t>11,76; 16,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 19,37</t>
+          <t>14,05; 19,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 16,69</t>
+          <t>12,19; 16,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,42; 17,75</t>
+          <t>13,33; 17,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,14; 25,5</t>
+          <t>20,3; 25,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,42; 29,82</t>
+          <t>24,41; 30,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,03; 23,56</t>
+          <t>18,19; 23,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,09; 26,98</t>
+          <t>22,09; 26,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 20,26</t>
+          <t>16,92; 20,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,36; 24,07</t>
+          <t>20,31; 24,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,02; 19,8</t>
+          <t>15,93; 19,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,7; 22,0</t>
+          <t>18,69; 21,97</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,2</t>
+          <t>12,69; 15,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,3; 16,85</t>
+          <t>14,32; 16,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,29; 15,7</t>
+          <t>13,37; 15,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,63</t>
+          <t>15,13; 21,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,78; 24,66</t>
+          <t>22,0; 24,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,19</t>
+          <t>24,35; 27,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,39; 24,36</t>
+          <t>21,44; 24,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,82; 23,69</t>
+          <t>20,25; 23,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,8; 19,68</t>
+          <t>17,67; 19,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,77; 21,78</t>
+          <t>19,85; 21,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,73; 19,66</t>
+          <t>17,78; 19,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,57; 21,95</t>
+          <t>18,63; 21,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>19,24%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 20,38</t>
+          <t>11,3; 16,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 22,4</t>
+          <t>13,68; 19,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,43; 32,86</t>
+          <t>12,84; 18,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,39; 35,04</t>
+          <t>14,44; 20,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,78; 38,26</t>
+          <t>20,32; 26,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 41,42</t>
+          <t>23,34; 30,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,74; 35,29</t>
+          <t>21,82; 28,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 33,89</t>
+          <t>16,91; 23,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 26,86</t>
+          <t>16,53; 20,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,06; 30,29</t>
+          <t>19,33; 23,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,73; 30,29</t>
+          <t>18,25; 22,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,11; 31,63</t>
+          <t>16,85; 21,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>26,84%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 16,98</t>
+          <t>10,76; 15,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 19,87</t>
+          <t>13,99; 18,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 17,21</t>
+          <t>12,24; 16,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,2; 19,21</t>
+          <t>11,32; 62,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,3</t>
+          <t>20,02; 25,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 29,28</t>
+          <t>22,38; 28,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,92; 29,3</t>
+          <t>21,54; 27,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 23,63</t>
+          <t>20,86; 24,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,67; 20,38</t>
+          <t>16,26; 19,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,8; 23,69</t>
+          <t>19,06; 22,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,3; 22,21</t>
+          <t>17,59; 21,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 20,68</t>
+          <t>16,97; 50,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,27</t>
+          <t>12,81; 18,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,89</t>
+          <t>10,06; 15,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,9</t>
+          <t>11,53; 16,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,61; 30,75</t>
+          <t>15,21; 20,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 25,53</t>
+          <t>21,32; 28,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,38; 28,51</t>
+          <t>20,22; 26,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,54; 27,11</t>
+          <t>18,68; 24,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,03</t>
+          <t>8,95; 22,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 19,77</t>
+          <t>18,05; 22,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 22,78</t>
+          <t>15,93; 20,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,24</t>
+          <t>15,87; 19,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 26,65</t>
+          <t>9,96; 20,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 18,37</t>
+          <t>11,76; 16,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,68</t>
+          <t>14,05; 19,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 16,79</t>
+          <t>12,19; 16,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 21,22</t>
+          <t>13,04; 17,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,32; 28,07</t>
+          <t>20,3; 25,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,22; 26,35</t>
+          <t>24,41; 30,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 24,66</t>
+          <t>18,19; 23,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 23,24</t>
+          <t>18,65; 25,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 22,35</t>
+          <t>16,92; 20,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 20,07</t>
+          <t>20,31; 24,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 19,71</t>
+          <t>15,93; 19,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 21,31</t>
+          <t>16,94; 20,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>21,05%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 16,03</t>
+          <t>12,69; 15,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 19,38</t>
+          <t>14,32; 16,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 16,68</t>
+          <t>13,37; 15,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 17,84</t>
+          <t>14,87; 41,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,8</t>
+          <t>22,0; 24,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,41; 30,09</t>
+          <t>24,35; 27,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,19; 23,33</t>
+          <t>21,44; 24,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,09; 26,91</t>
+          <t>16,66; 22,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,92; 20,41</t>
+          <t>17,67; 19,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,2</t>
+          <t>19,85; 21,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 19,64</t>
+          <t>17,78; 19,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,69; 21,97</t>
+          <t>17,85; 31,08</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,56%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,49%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16,89%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,74%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>22,81%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>22,35%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>18,66%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>20,75%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>18,74%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>19,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>12,69; 15,11</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>14,32; 16,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>13,37; 15,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15,13; 21,74</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,0; 24,79</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>24,35; 27,28</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>21,44; 24,46</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>20,25; 23,74</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 19,66</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>19,85; 21,87</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>17,78; 19,74</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>18,63; 21,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,3; 16,36</t>
+          <t>11,58; 16,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,3</t>
+          <t>13,8; 18,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,31</t>
+          <t>12,82; 18,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,44; 20,23</t>
+          <t>14,21; 20,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,32; 26,33</t>
+          <t>20,1; 26,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 30,39</t>
+          <t>23,62; 30,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,82; 28,71</t>
+          <t>21,92; 28,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 23,76</t>
+          <t>16,73; 23,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,53; 20,58</t>
+          <t>16,54; 20,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,33; 23,9</t>
+          <t>19,33; 23,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 22,82</t>
+          <t>18,29; 22,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,06</t>
+          <t>16,61; 21,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,27</t>
+          <t>10,86; 15,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,89</t>
+          <t>14,3; 19,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,9</t>
+          <t>12,21; 16,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 62,16</t>
+          <t>11,34; 61,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,02; 25,53</t>
+          <t>20,07; 25,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,38; 28,51</t>
+          <t>22,61; 28,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,54; 27,11</t>
+          <t>21,48; 27,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,86; 24,98</t>
+          <t>20,84; 24,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 19,77</t>
+          <t>16,31; 19,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 22,78</t>
+          <t>19,3; 23,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,24</t>
+          <t>17,44; 21,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 50,04</t>
+          <t>17,15; 50,4</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 18,37</t>
+          <t>12,9; 18,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,68</t>
+          <t>10,2; 15,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,53; 16,79</t>
+          <t>11,42; 16,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 20,66</t>
+          <t>15,15; 21,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,32; 28,07</t>
+          <t>21,94; 28,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 26,35</t>
+          <t>19,94; 26,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,68; 24,66</t>
+          <t>18,62; 24,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 22,16</t>
+          <t>8,9; 22,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 22,35</t>
+          <t>18,03; 22,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,93; 20,07</t>
+          <t>15,78; 20,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 19,71</t>
+          <t>15,97; 20,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 20,29</t>
+          <t>11,18; 20,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 16,03</t>
+          <t>11,83; 16,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 19,38</t>
+          <t>14,03; 19,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 16,68</t>
+          <t>12,32; 16,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,62</t>
+          <t>12,99; 17,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,8</t>
+          <t>20,42; 25,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,41; 30,09</t>
+          <t>24,65; 30,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,19; 23,33</t>
+          <t>18,26; 23,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 25,26</t>
+          <t>18,24; 25,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 20,41</t>
+          <t>16,76; 20,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,2</t>
+          <t>20,59; 24,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 19,64</t>
+          <t>16,01; 19,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,94; 20,75</t>
+          <t>16,54; 20,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,11</t>
+          <t>12,84; 15,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 16,92</t>
+          <t>14,38; 16,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,71</t>
+          <t>13,3; 15,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,87; 41,87</t>
+          <t>14,82; 38,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,79</t>
+          <t>21,77; 24,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,35; 27,28</t>
+          <t>24,1; 27,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,44; 24,46</t>
+          <t>21,43; 24,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,77</t>
+          <t>16,9; 22,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,66</t>
+          <t>17,7; 19,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,85; 21,87</t>
+          <t>19,75; 21,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,74</t>
+          <t>17,69; 19,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,85; 31,08</t>
+          <t>17,73; 31,44</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a subir varios pisos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>95503</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>114528</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>104898</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>108822</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>159678</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>187275</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>170424</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>152930</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>255181</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>301803</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>275323</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>261752</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>80341; 113871</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>97079; 133529</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>86498; 125943</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>90302; 128255</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>138357; 180592</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>164616; 212234</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>147456; 193342</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>121339; 172399</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>228701; 286483</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>270779; 334056</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>246499; 305456</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>226082; 289948</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>124613</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>167297</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>146423</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>358978</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>220307</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>261421</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>252746</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>218361</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>344920</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>428719</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>399169</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>577339</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>104408; 147130</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>145543; 194912</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>124882; 170539</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>135320; 738009</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>194337; 248881</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>233123; 290660</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>223981; 283695</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>199657; 237429</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>314742; 383434</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>395385; 471238</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>360244; 436403</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>368855; 1084029</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>105171</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>94890</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>106025</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>125867</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>170013</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>179727</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>168828</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>155876</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>275184</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>274618</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>274853</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>281743</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>87537; 125235</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77287; 117178</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>86753; 126805</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>106649; 148684</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>150001; 192637</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>154967; 204318</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>146207; 194591</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>83048; 211642</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>245652; 305090</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>242186; 307842</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>246675; 309212</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>183027; 333230</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>131029</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>156047</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>134635</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>140992</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>235600</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>287291</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>216673</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>247235</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>366629</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>443338</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>351308</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>388227</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>111423; 151548</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>132390; 181532</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>115491; 158424</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>120413; 161603</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>212085; 266680</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>259308; 317842</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>190595; 243851</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>199645; 276008</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>332074; 399606</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>411015; 484531</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>317135; 388428</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>334223; 422292</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>456316</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>532763</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>491981</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>734659</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>785598</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>915715</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>808672</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>774402</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1241913</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1448478</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1300652</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1509061</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>420700; 495339</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>492333; 579094</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>451351; 536199</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>512669; 1328973</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>735747; 838704</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>857459; 969377</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>759547; 863753</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>627069; 843638</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1178324; 1310043</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1378450; 1511431</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1227561; 1367649</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1271347; 2254535</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>